--- a/backend/expense_details.xlsx
+++ b/backend/expense_details.xlsx
@@ -419,44 +419,44 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>trip</v>
+        <v>buy football</v>
       </c>
       <c r="B2">
-        <v>230</v>
+        <v>1254</v>
       </c>
       <c r="C2" t="str">
-        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/1f301.png</v>
+        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/26bd.png</v>
       </c>
       <c r="D2" s="1">
-        <v>45957.22928240741</v>
+        <v>46060.22928240741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>travel</v>
+        <v>buy bike</v>
       </c>
       <c r="B3">
-        <v>4567</v>
+        <v>1567</v>
       </c>
       <c r="C3" t="str">
-        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/1f4bc.png</v>
+        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/1f6b2.png</v>
       </c>
       <c r="D3" s="1">
-        <v>45953.22928240741</v>
+        <v>46058.22928240741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>fair</v>
+        <v>buy clothes</v>
       </c>
       <c r="B4">
-        <v>1256</v>
+        <v>3211</v>
       </c>
       <c r="C4" t="str">
-        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/1f3a1.png</v>
+        <v>https://cdn.jsdelivr.net/npm/emoji-datasource-apple/img/apple/64/1f454.png</v>
       </c>
       <c r="D4" s="1">
-        <v>45949.22928240741</v>
+        <v>46054.22928240741</v>
       </c>
     </row>
   </sheetData>
